--- a/back/data1.xlsx
+++ b/back/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pikac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\EstyaTicketing\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7CC9A6DC-5BCB-4772-82C2-3BF9EC880E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4DA8FB3-36AE-4233-8B2C-539E065EE53F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD8DD1-25FC-48DD-86D7-83D580D5A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1226,12 +1226,12 @@
       <selection activeCell="B2" sqref="B2:B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1255,282 +1255,282 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
@@ -1552,11 +1552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="18"/>
     <col min="2" max="2" width="35.28515625" style="18" customWidth="1"/>
@@ -1572,7 +1572,7 @@
     <col min="16" max="16" width="36.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>62</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>77</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1">
+    <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>77</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>77</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>77</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>77</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>77</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>104</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>108</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>77</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>77</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>77</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>77</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>77</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>77</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>77</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>77</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>134</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>77</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>77</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>77</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>77</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>77</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>77</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>77</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>156</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>161</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>77</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>77</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>77</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>175</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>77</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>77</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>77</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>77</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>77</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>77</v>
       </c>
@@ -2792,12 +2792,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>193</v>
@@ -2818,7 +2818,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>77</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>77</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>77</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>77</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>77</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>209</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>213</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>77</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>77</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>77</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>77</v>
       </c>

--- a/back/data1.xlsx
+++ b/back/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travail\EstyaTicketing\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD8DD1-25FC-48DD-86D7-83D580D5A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B5368-21A8-48EF-B593-27165101E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="224">
   <si>
     <t>IsAdmin</t>
   </si>
@@ -612,9 +612,6 @@
   </si>
   <si>
     <t xml:space="preserve">Marocaine </t>
-  </si>
-  <si>
-    <t>AMES Marocaineoc</t>
   </si>
   <si>
     <t>+212 665-732076</t>
@@ -1552,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,22 +2797,22 @@
         <v>49</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2826,16 +2823,16 @@
         <v>50</v>
       </c>
       <c r="C48" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>2</v>
@@ -2852,16 +2849,16 @@
         <v>51</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>2</v>
@@ -2878,16 +2875,16 @@
         <v>52</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>2</v>
@@ -2904,16 +2901,16 @@
         <v>53</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="G51" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="N51" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>2</v>
@@ -2930,16 +2927,16 @@
         <v>54</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="G52" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="N52" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>2</v>
@@ -2956,16 +2953,16 @@
         <v>55</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>95</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>2</v>
@@ -2976,22 +2973,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="E54" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>2</v>
@@ -3002,22 +2999,22 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="E55" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>2</v>
@@ -3034,16 +3031,16 @@
         <v>58</v>
       </c>
       <c r="C56" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N56" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>2</v>
@@ -3060,16 +3057,16 @@
         <v>59</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>2</v>
@@ -3086,16 +3083,16 @@
         <v>60</v>
       </c>
       <c r="C58" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>2</v>
@@ -3112,16 +3109,16 @@
         <v>61</v>
       </c>
       <c r="C59" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>2</v>
